--- a/biology/Zoologie/Geocoris/Geocoris.xlsx
+++ b/biology/Zoologie/Geocoris/Geocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Geocoris comprend des insectes hémiptères hétéroptères (punaises) de la famille des Lygaeidae, et de la sous-famille des Geocorinae. 
 Ce sont des prédateurs. Les larves et les adultes ont pour proies principalement les acariens, les psylles, les pucerons et les thrips sur les arbres fruitiers, la vigne et les cultures légumières.
@@ -512,7 +524,9 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre  Geocoris  a été décrit par l'entomologiste suédois Carl Frederick Fallén en 1814.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des sous-genres et des espèces
 Sous-genre Geocoris (Eilatus)
